--- a/evaluation/Copie de Modèle+analyse+SEO+et+accessibilité+(1).xlsx
+++ b/evaluation/Copie de Modèle+analyse+SEO+et+accessibilité+(1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\open\Chouette-agence\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\open\Chouette-agence\evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738B143F-24FC-49BC-A624-F3C47CB7A6A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06186804-97F2-420D-80D7-7257CB808817}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20520" yWindow="4170" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="107">
   <si>
     <t>Categorie</t>
   </si>
@@ -305,6 +305,42 @@
   </si>
   <si>
     <t>Changer les alt identique pour une autre description</t>
+  </si>
+  <si>
+    <t>Mise en place de recommandations</t>
+  </si>
+  <si>
+    <t>Redimensionner les images à l'aide de logiciel comme Fileoptimizer</t>
+  </si>
+  <si>
+    <t>Compresser le javascript</t>
+  </si>
+  <si>
+    <t>Compresser le CSS</t>
+  </si>
+  <si>
+    <t>Mettre une description de la page</t>
+  </si>
+  <si>
+    <t>Mettre des mots clés</t>
+  </si>
+  <si>
+    <t>Enlever les balises vides</t>
+  </si>
+  <si>
+    <t>Mettre une langue</t>
+  </si>
+  <si>
+    <t>Enlever les liens inutiles qui revoient à l'index</t>
+  </si>
+  <si>
+    <t>Enlever le CSS du HTML</t>
+  </si>
+  <si>
+    <t>Faire en sorte  que le texte dans les images soit lisible</t>
+  </si>
+  <si>
+    <t>Agrandire le texte et les images</t>
   </si>
 </sst>
 </file>
@@ -375,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -385,6 +421,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,13 +642,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="1" max="1" width="29.21875" customWidth="1"/>
     <col min="2" max="2" width="31.88671875" customWidth="1"/>
     <col min="3" max="3" width="83" customWidth="1"/>
     <col min="4" max="4" width="93.6640625" customWidth="1"/>
@@ -1081,31 +1121,80 @@
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2059,6 +2148,9 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A25:B25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/evaluation/Copie de Modèle+analyse+SEO+et+accessibilité+(1).xlsx
+++ b/evaluation/Copie de Modèle+analyse+SEO+et+accessibilité+(1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\open\Chouette-agence\evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06186804-97F2-420D-80D7-7257CB808817}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20E66B5-6298-4C0C-8753-8CCFE8518748}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20520" yWindow="4170" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="95">
   <si>
     <t>Categorie</t>
   </si>
@@ -256,9 +256,6 @@
     <t>certaine écriture sont trop petite pas moins de 10px</t>
   </si>
   <si>
-    <t>wave</t>
-  </si>
-  <si>
     <t xml:space="preserve">Problème de contrastre </t>
   </si>
   <si>
@@ -307,40 +304,7 @@
     <t>Changer les alt identique pour une autre description</t>
   </si>
   <si>
-    <t>Mise en place de recommandations</t>
-  </si>
-  <si>
-    <t>Redimensionner les images à l'aide de logiciel comme Fileoptimizer</t>
-  </si>
-  <si>
-    <t>Compresser le javascript</t>
-  </si>
-  <si>
-    <t>Compresser le CSS</t>
-  </si>
-  <si>
-    <t>Mettre une description de la page</t>
-  </si>
-  <si>
-    <t>Mettre des mots clés</t>
-  </si>
-  <si>
-    <t>Enlever les balises vides</t>
-  </si>
-  <si>
-    <t>Mettre une langue</t>
-  </si>
-  <si>
-    <t>Enlever les liens inutiles qui revoient à l'index</t>
-  </si>
-  <si>
-    <t>Enlever le CSS du HTML</t>
-  </si>
-  <si>
-    <t>Faire en sorte  que le texte dans les images soit lisible</t>
-  </si>
-  <si>
-    <t>Agrandire le texte et les images</t>
+    <t>wave/Woorank</t>
   </si>
 </sst>
 </file>
@@ -421,10 +385,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A35" sqref="A24:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1034,7 +998,7 @@
         <v>76</v>
       </c>
       <c r="F18" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1042,19 +1006,19 @@
         <v>48</v>
       </c>
       <c r="B19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" t="s">
         <v>79</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>80</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>81</v>
       </c>
-      <c r="E19" t="s">
-        <v>82</v>
-      </c>
       <c r="F19" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1062,19 +1026,19 @@
         <v>48</v>
       </c>
       <c r="B20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" t="s">
         <v>83</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>84</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>85</v>
       </c>
-      <c r="E20" t="s">
-        <v>86</v>
-      </c>
       <c r="F20" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1082,19 +1046,19 @@
         <v>48</v>
       </c>
       <c r="B21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" t="s">
         <v>87</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="F21" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1102,19 +1066,19 @@
         <v>48</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" t="s">
         <v>94</v>
-      </c>
-      <c r="F22" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1122,65 +1086,41 @@
       <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>95</v>
-      </c>
+      <c r="A24" s="4"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" s="5"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>97</v>
-      </c>
+      <c r="A26" s="5"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>98</v>
-      </c>
+      <c r="A27" s="5"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>99</v>
-      </c>
+      <c r="A28" s="5"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
-        <v>100</v>
-      </c>
+      <c r="A29" s="5"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
-        <v>101</v>
-      </c>
+      <c r="A30" s="5"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
-        <v>102</v>
-      </c>
+      <c r="A31" s="5"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
-        <v>103</v>
-      </c>
+      <c r="A32" s="5"/>
     </row>
     <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
-        <v>104</v>
-      </c>
+      <c r="A33" s="5"/>
     </row>
     <row r="34" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
-        <v>105</v>
-      </c>
+      <c r="A34" s="5"/>
     </row>
     <row r="35" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
-        <v>106</v>
-      </c>
+      <c r="A35" s="5"/>
     </row>
     <row r="36" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="37" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/evaluation/Copie de Modèle+analyse+SEO+et+accessibilité+(1).xlsx
+++ b/evaluation/Copie de Modèle+analyse+SEO+et+accessibilité+(1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\open\Chouette-agence\evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20E66B5-6298-4C0C-8753-8CCFE8518748}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55DF0A6C-E572-4586-BA3D-9C7ABAFD4F95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -304,7 +304,7 @@
     <t>Changer les alt identique pour une autre description</t>
   </si>
   <si>
-    <t>wave/Woorank</t>
+    <t>wave</t>
   </si>
 </sst>
 </file>
@@ -606,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A35" sqref="A24:B35"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/evaluation/Copie de Modèle+analyse+SEO+et+accessibilité+(1).xlsx
+++ b/evaluation/Copie de Modèle+analyse+SEO+et+accessibilité+(1).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\open\Chouette-agence\evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55DF0A6C-E572-4586-BA3D-9C7ABAFD4F95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA605B5-EE75-4080-92F7-49FB51BD06F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="99">
   <si>
     <t>Categorie</t>
   </si>
@@ -305,6 +305,18 @@
   </si>
   <si>
     <t>wave</t>
+  </si>
+  <si>
+    <t>manque de la balise input</t>
+  </si>
+  <si>
+    <t>Ne pas oublier de mettre la balise input pour des formulaires</t>
+  </si>
+  <si>
+    <t>Sans cette balise les données ne sont pas correcte et peuvent cassé l'application</t>
+  </si>
+  <si>
+    <t>Mettre la balise input dans la balise parent</t>
   </si>
 </sst>
 </file>
@@ -607,7 +619,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.21875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1082,8 +1094,24 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
+      <c r="A23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
